--- a/silo_groups.xlsx
+++ b/silo_groups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="22">
   <si>
     <t>Upslope</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>GNIP</t>
+  </si>
+  <si>
+    <t>Post-removal of GNIP outliers</t>
+  </si>
+  <si>
+    <t>MAKE SURE RIGHT</t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="W49" sqref="W49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,7 +1544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1551,8 +1557,14 @@
       <c r="D49">
         <v>0.29893787999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="S49" t="s">
+        <v>20</v>
+      </c>
+      <c r="W49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1565,8 +1577,14 @@
       <c r="D50">
         <v>0.17173727</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="S50" t="s">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1579,8 +1597,20 @@
       <c r="D51">
         <v>-4.1687120000000001E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R51" t="s">
+        <v>4</v>
+      </c>
+      <c r="S51">
+        <v>-0.134459844</v>
+      </c>
+      <c r="T51">
+        <v>6.3155939999999994E-2</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1593,8 +1623,20 @@
       <c r="D52">
         <v>-0.14633629000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R52" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52">
+        <v>-0.121186084</v>
+      </c>
+      <c r="T52">
+        <v>-9.8352560000000006E-2</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1607,8 +1649,20 @@
       <c r="D53">
         <v>-6.4867439999999998E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R53" t="s">
+        <v>6</v>
+      </c>
+      <c r="S53">
+        <v>-0.20733787200000001</v>
+      </c>
+      <c r="T53">
+        <v>0.1132162</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1621,8 +1675,20 @@
       <c r="D54">
         <v>0.24510945000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R54" t="s">
+        <v>7</v>
+      </c>
+      <c r="S54">
+        <v>0.358663185</v>
+      </c>
+      <c r="T54">
+        <v>6.2318449999999997E-2</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1635,8 +1701,20 @@
       <c r="D55">
         <v>5.4200089999999999E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R55" t="s">
+        <v>8</v>
+      </c>
+      <c r="S55">
+        <v>-6.8787134E-2</v>
+      </c>
+      <c r="T55">
+        <v>-0.12113624000000001</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1649,8 +1727,20 @@
       <c r="D56">
         <v>0.12520345999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R56" t="s">
+        <v>9</v>
+      </c>
+      <c r="S56">
+        <v>0.32022701599999998</v>
+      </c>
+      <c r="T56">
+        <v>0.10505235</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1663,8 +1753,20 @@
       <c r="D57">
         <v>0.20646709999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R57" t="s">
+        <v>10</v>
+      </c>
+      <c r="S57">
+        <v>0.19376627199999999</v>
+      </c>
+      <c r="T57">
+        <v>0.52918511999999995</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -1677,8 +1779,20 @@
       <c r="D58">
         <v>0.22968521</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R58" t="s">
+        <v>11</v>
+      </c>
+      <c r="S58">
+        <v>1.9946065999999998E-2</v>
+      </c>
+      <c r="T58">
+        <v>0.38702531000000001</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -1691,8 +1805,20 @@
       <c r="D59">
         <v>1.8417389999999999E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S59">
+        <v>4.0849775999999997E-2</v>
+      </c>
+      <c r="T59">
+        <v>0.20037302000000001</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -1705,8 +1831,20 @@
       <c r="D60">
         <v>0.15236988000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R60" t="s">
+        <v>13</v>
+      </c>
+      <c r="S60">
+        <v>-0.46766649599999999</v>
+      </c>
+      <c r="T60">
+        <v>-0.31033070000000001</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1719,8 +1857,20 @@
       <c r="D61">
         <v>0.24736077000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R61" t="s">
+        <v>14</v>
+      </c>
+      <c r="S61">
+        <v>9.3814520000000002E-3</v>
+      </c>
+      <c r="T61">
+        <v>0.37026777999999999</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1733,8 +1883,20 @@
       <c r="D62">
         <v>2.7052509999999998E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R62" t="s">
+        <v>15</v>
+      </c>
+      <c r="S62">
+        <v>0.349322629</v>
+      </c>
+      <c r="T62">
+        <v>0.21990265000000001</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1747,8 +1909,17 @@
       <c r="D63">
         <v>-4.0770880000000002E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R63" t="s">
+        <v>4</v>
+      </c>
+      <c r="S63">
+        <v>0.81802562000000001</v>
+      </c>
+      <c r="T63">
+        <v>0.23017291000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1761,8 +1932,17 @@
       <c r="D64">
         <v>-0.12494718</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R64" t="s">
+        <v>5</v>
+      </c>
+      <c r="S64">
+        <v>0.44511220000000001</v>
+      </c>
+      <c r="T64">
+        <v>1.1549200000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1775,8 +1955,17 @@
       <c r="D65">
         <v>-2.6663760000000002E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R65" t="s">
+        <v>6</v>
+      </c>
+      <c r="S65">
+        <v>3.7272109999999997E-2</v>
+      </c>
+      <c r="T65">
+        <v>-1.411073E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1789,8 +1978,17 @@
       <c r="D66">
         <v>0.30049892</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R66" t="s">
+        <v>7</v>
+      </c>
+      <c r="S66">
+        <v>2.098995E-2</v>
+      </c>
+      <c r="T66">
+        <v>0.15153901</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -1803,8 +2001,17 @@
       <c r="D67">
         <v>9.7460740000000004E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R67" t="s">
+        <v>8</v>
+      </c>
+      <c r="S67">
+        <v>3.025245E-2</v>
+      </c>
+      <c r="T67">
+        <v>0.44794993999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -1817,8 +2024,17 @@
       <c r="D68">
         <v>6.7235909999999996E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R68" t="s">
+        <v>9</v>
+      </c>
+      <c r="S68">
+        <v>0.36410358999999998</v>
+      </c>
+      <c r="T68">
+        <v>0.26049446999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -1831,8 +2047,17 @@
       <c r="D69">
         <v>0.16471661000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R69" t="s">
+        <v>10</v>
+      </c>
+      <c r="S69">
+        <v>6.4811220000000003E-2</v>
+      </c>
+      <c r="T69">
+        <v>0.50080952000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -1845,8 +2070,17 @@
       <c r="D70">
         <v>-3.0251259999999999E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R70" t="s">
+        <v>11</v>
+      </c>
+      <c r="S70">
+        <v>8.4004560000000006E-2</v>
+      </c>
+      <c r="T70">
+        <v>0.44948185000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -1859,8 +2093,17 @@
       <c r="D71">
         <v>6.0059260000000003E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R71" t="s">
+        <v>12</v>
+      </c>
+      <c r="S71">
+        <v>0.26762514999999998</v>
+      </c>
+      <c r="T71">
+        <v>0.29293690999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -1873,13 +2116,42 @@
       <c r="D72">
         <v>0.14141218999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R72" t="s">
+        <v>13</v>
+      </c>
+      <c r="S72">
+        <v>0.14407735999999999</v>
+      </c>
+      <c r="T72">
+        <v>-6.9347130000000007E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R73" t="s">
+        <v>14</v>
+      </c>
+      <c r="S73">
+        <v>-0.38865409000000001</v>
+      </c>
+      <c r="T73">
+        <v>0.39061634000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R74" t="s">
+        <v>15</v>
+      </c>
+      <c r="S74">
+        <v>0.24443276999999999</v>
+      </c>
+      <c r="T74">
+        <v>0.25034800000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>19</v>
       </c>
@@ -1890,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -1904,7 +2176,7 @@
         <v>1.1023025000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1918,7 +2190,7 @@
         <v>-7.2214272999999995E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -1932,7 +2204,7 @@
         <v>1.5054224E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -1946,7 +2218,7 @@
         <v>-7.7339490000000004E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
